--- a/content/dadesref/entitats/Direccions_Generals.xlsx
+++ b/content/dadesref/entitats/Direccions_Generals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/10.Direccions_generals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="548" documentId="13_ncr:1_{B7C03D83-7D6F-4F00-81B3-6885BEA95C5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C6927281-A3EE-4890-8013-8FCBBE8EF9DB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{9EA332EC-479E-478C-A941-C078667EA77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="178">
   <si>
     <t>Nom</t>
   </si>
@@ -230,9 +230,6 @@
     <t>Direcció General de Funció Pública</t>
   </si>
   <si>
-    <t>Direcció General d'Administració Digital</t>
-  </si>
-  <si>
     <t>Direcció General de Formació Professional</t>
   </si>
   <si>
@@ -561,6 +558,15 @@
   </si>
   <si>
     <t>13795</t>
+  </si>
+  <si>
+    <t>Casa de la Generalitat a Perpinyà</t>
+  </si>
+  <si>
+    <t>13599</t>
+  </si>
+  <si>
+    <t>Direcció General d'Administració Digital i d'Organització</t>
   </si>
 </sst>
 </file>
@@ -868,10 +874,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C146AC6B-42A5-4BED-855F-DA99D6D308F0}" name="Tabla13" displayName="Tabla13" ref="A3:D127" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D108">
-    <sortCondition ref="C4:C108"/>
-    <sortCondition ref="B4:B108"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C146AC6B-42A5-4BED-855F-DA99D6D308F0}" name="Tabla13" displayName="Tabla13" ref="A3:D128" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D109">
+    <sortCondition ref="C4:C109"/>
+    <sortCondition ref="B4:B109"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2791C13D-CCDB-4A50-95FC-3D2E304B7425}" name="Id" dataDxfId="3"/>
@@ -1146,9 +1152,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEC9D88-FB60-4891-A8A4-D4B94761FD89}">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1312,7 +1320,7 @@
         <v>19819</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="C13" s="9">
         <v>6</v>
@@ -1337,7 +1345,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>43</v>
@@ -1351,10 +1359,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="9">
         <v>6</v>
@@ -1364,25 +1372,25 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="9">
+        <v>6</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
         <v>13958</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="9">
-        <v>1599</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>18122</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="C18" s="9">
         <v>1599</v>
@@ -1393,10 +1401,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
-        <v>18121</v>
+        <v>18122</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="9">
         <v>1599</v>
@@ -1407,10 +1415,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
-        <v>18123</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>20</v>
+        <v>18121</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="C20" s="9">
         <v>1599</v>
@@ -1421,10 +1429,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
-        <v>11387</v>
+        <v>18123</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="C21" s="9">
         <v>1599</v>
@@ -1435,10 +1443,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
-        <v>15704</v>
+        <v>11387</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C22" s="9">
         <v>1599</v>
@@ -1448,11 +1456,11 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>102</v>
+      <c r="A23" s="9">
+        <v>15704</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="C23" s="9">
         <v>1599</v>
@@ -1463,10 +1471,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C24" s="9">
         <v>1599</v>
@@ -1477,10 +1485,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C25" s="9">
         <v>1599</v>
@@ -1490,25 +1498,25 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>2284</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>59</v>
+      <c r="A26" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="C26" s="9">
-        <v>2221</v>
+        <v>1599</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
-        <v>2340</v>
+        <v>2284</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C27" s="9">
         <v>2221</v>
@@ -1519,10 +1527,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
-        <v>2388</v>
+        <v>2340</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C28" s="9">
         <v>2221</v>
@@ -1533,10 +1541,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
-        <v>21672</v>
+        <v>2388</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C29" s="9">
         <v>2221</v>
@@ -1546,11 +1554,11 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>43</v>
+      <c r="A30" s="9">
+        <v>21672</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="C30" s="9">
         <v>2221</v>
@@ -1560,25 +1568,25 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+      <c r="A31" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="9">
+        <v>2221</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
         <v>19031</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B32" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="C31" s="9">
-        <v>2803</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
-        <v>21661</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="C32" s="9">
         <v>2803</v>
@@ -1588,11 +1596,11 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>43</v>
+      <c r="A33" s="7">
+        <v>21661</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="C33" s="9">
         <v>2803</v>
@@ -1603,10 +1611,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="C34" s="9">
         <v>2803</v>
@@ -1617,10 +1625,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C35" s="9">
         <v>2803</v>
@@ -1630,25 +1638,25 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
-        <v>19934</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>70</v>
+      <c r="A36" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="C36" s="9">
-        <v>3392</v>
+        <v>2803</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
-        <v>21152</v>
+        <v>19934</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C37" s="9">
         <v>3392</v>
@@ -1659,10 +1667,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
-        <v>18287</v>
+        <v>21152</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C38" s="9">
         <v>3392</v>
@@ -1672,11 +1680,11 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
-        <v>19785</v>
+      <c r="A39" s="9">
+        <v>18287</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C39" s="9">
         <v>3392</v>
@@ -1686,11 +1694,11 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
-        <v>19852</v>
+      <c r="A40" s="7">
+        <v>19785</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C40" s="9">
         <v>3392</v>
@@ -1701,10 +1709,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
-        <v>3626</v>
+        <v>19852</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C41" s="9">
         <v>3392</v>
@@ -1715,10 +1723,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
-        <v>3520</v>
+        <v>3626</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C42" s="9">
         <v>3392</v>
@@ -1729,10 +1737,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
-        <v>669</v>
+        <v>3520</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="C43" s="9">
         <v>3392</v>
@@ -1742,11 +1750,11 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
-        <v>674</v>
+      <c r="A44" s="9">
+        <v>669</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C44" s="9">
         <v>3392</v>
@@ -1756,11 +1764,11 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="14">
-        <v>680</v>
+      <c r="A45" s="7">
+        <v>674</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C45" s="9">
         <v>3392</v>
@@ -1770,11 +1778,11 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="9">
-        <v>685</v>
+      <c r="A46" s="14">
+        <v>680</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C46" s="9">
         <v>3392</v>
@@ -1785,10 +1793,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
-        <v>11898</v>
+        <v>685</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C47" s="9">
         <v>3392</v>
@@ -1799,10 +1807,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
-        <v>15432</v>
+        <v>11898</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C48" s="9">
         <v>3392</v>
@@ -1813,10 +1821,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
-        <v>15433</v>
+        <v>15432</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C49" s="9">
         <v>3392</v>
@@ -1827,10 +1835,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
-        <v>20432</v>
+        <v>15433</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C50" s="9">
         <v>3392</v>
@@ -1841,10 +1849,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
-        <v>3421</v>
+        <v>20432</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C51" s="9">
         <v>3392</v>
@@ -1854,11 +1862,11 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>107</v>
+      <c r="A52" s="9">
+        <v>3421</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="C52" s="9">
         <v>3392</v>
@@ -1872,7 +1880,7 @@
         <v>139</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C53" s="9">
         <v>3392</v>
@@ -1882,25 +1890,25 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
-        <v>11292</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>39</v>
+      <c r="A54" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C54" s="9">
-        <v>4163</v>
+        <v>3392</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
-        <v>15794</v>
+        <v>11292</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="C55" s="9">
         <v>4163</v>
@@ -1911,10 +1919,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
-        <v>4487</v>
+        <v>15794</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C56" s="9">
         <v>4163</v>
@@ -1925,10 +1933,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
-        <v>12985</v>
+        <v>4487</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C57" s="9">
         <v>4163</v>
@@ -1938,11 +1946,11 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>43</v>
+      <c r="A58" s="7">
+        <v>12985</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="C58" s="9">
         <v>4163</v>
@@ -1953,10 +1961,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="C59" s="9">
         <v>4163</v>
@@ -1967,10 +1975,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C60" s="9">
         <v>4163</v>
@@ -1981,10 +1989,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C61" s="9">
         <v>4163</v>
@@ -1995,10 +2003,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C62" s="9">
         <v>4163</v>
@@ -2009,27 +2017,27 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>146</v>
+        <v>111</v>
+      </c>
+      <c r="C63" s="9">
+        <v>4163</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C64" s="19">
-        <v>13757</v>
+        <v>43</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>57</v>
@@ -2037,10 +2045,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C65" s="19">
         <v>13757</v>
@@ -2051,10 +2059,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C66" s="19">
         <v>13757</v>
@@ -2065,10 +2073,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C67" s="19">
         <v>13757</v>
@@ -2079,10 +2087,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C68" s="19">
         <v>13757</v>
@@ -2093,10 +2101,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C69" s="19">
         <v>13757</v>
@@ -2106,25 +2114,25 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="7">
-        <v>8042</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="9">
-        <v>13760</v>
+      <c r="A70" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="19">
+        <v>13757</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
-        <v>866</v>
+        <v>8042</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C71" s="9">
         <v>13760</v>
@@ -2134,11 +2142,11 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="9">
-        <v>15681</v>
+      <c r="A72" s="7">
+        <v>866</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="C72" s="9">
         <v>13760</v>
@@ -2149,10 +2157,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
-        <v>18156</v>
+        <v>15681</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C73" s="9">
         <v>13760</v>
@@ -2163,10 +2171,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
-        <v>21659</v>
+        <v>18156</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="C74" s="9">
         <v>13760</v>
@@ -2177,10 +2185,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
-        <v>20185</v>
+        <v>21659</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C75" s="9">
         <v>13760</v>
@@ -2190,11 +2198,11 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>43</v>
+      <c r="A76" s="9">
+        <v>20185</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="C76" s="9">
         <v>13760</v>
@@ -2204,137 +2212,137 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="9">
-        <v>19816</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>170</v>
+      <c r="A77" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C77" s="9">
-        <v>19769</v>
+        <v>13760</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
-        <v>20437</v>
+        <v>19816</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C78" s="9">
         <v>19769</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
-        <v>15754</v>
+        <v>20437</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="C79" s="9">
         <v>19769</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>154</v>
+      <c r="A80" s="9">
+        <v>15754</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="9">
+        <v>19769</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C81" s="9">
-        <v>19769</v>
+        <v>43</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C82" s="9">
         <v>19769</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C83" s="9">
         <v>19769</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C84" s="9">
         <v>19769</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="9">
-        <v>20189</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>87</v>
+      <c r="A85" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="C85" s="9">
-        <v>19772</v>
+        <v>19769</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
-        <v>19793</v>
+        <v>20189</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C86" s="9">
         <v>19772</v>
@@ -2344,11 +2352,11 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="7">
-        <v>1116</v>
+      <c r="A87" s="9">
+        <v>19793</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C87" s="9">
         <v>19772</v>
@@ -2359,10 +2367,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
-        <v>1488</v>
+        <v>1116</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="C88" s="9">
         <v>19772</v>
@@ -2372,11 +2380,11 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="9">
-        <v>1300</v>
+      <c r="A89" s="7">
+        <v>1488</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C89" s="9">
         <v>19772</v>
@@ -2387,10 +2395,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
-        <v>1274</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>11</v>
+        <v>1300</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C90" s="9">
         <v>19772</v>
@@ -2401,10 +2409,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
-        <v>19792</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>13</v>
+        <v>1274</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C91" s="9">
         <v>19772</v>
@@ -2415,10 +2423,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
-        <v>18135</v>
+        <v>19792</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C92" s="9">
         <v>19772</v>
@@ -2429,10 +2437,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
-        <v>1344</v>
+        <v>18135</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C93" s="9">
         <v>19772</v>
@@ -2442,11 +2450,11 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="7">
-        <v>19786</v>
+      <c r="A94" s="9">
+        <v>1344</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C94" s="9">
         <v>19772</v>
@@ -2456,11 +2464,11 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="9">
-        <v>21707</v>
+      <c r="A95" s="7">
+        <v>19786</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C95" s="9">
         <v>19772</v>
@@ -2470,11 +2478,11 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>123</v>
+      <c r="A96" s="9">
+        <v>21707</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="C96" s="9">
         <v>19772</v>
@@ -2485,10 +2493,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C97" s="9">
         <v>19772</v>
@@ -2498,25 +2506,25 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="9">
-        <v>5921</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>30</v>
+      <c r="A98" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="C98" s="9">
-        <v>19774</v>
+        <v>19772</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="9">
-        <v>20854</v>
+        <v>5921</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C99" s="9">
         <v>19774</v>
@@ -2527,10 +2535,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="9">
-        <v>18103</v>
+        <v>20854</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C100" s="9">
         <v>19774</v>
@@ -2541,10 +2549,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
-        <v>5157</v>
+        <v>18103</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C101" s="9">
         <v>19774</v>
@@ -2555,10 +2563,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="9">
-        <v>13766</v>
+        <v>5157</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="C102" s="9">
         <v>19774</v>
@@ -2569,10 +2577,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="9">
-        <v>10646</v>
+        <v>13766</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="C103" s="9">
         <v>19774</v>
@@ -2583,10 +2591,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="9">
-        <v>21281</v>
+        <v>10646</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C104" s="9">
         <v>19774</v>
@@ -2596,11 +2604,11 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>125</v>
+      <c r="A105" s="9">
+        <v>21281</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="C105" s="9">
         <v>19774</v>
@@ -2610,25 +2618,25 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="9">
-        <v>13829</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>34</v>
+      <c r="A106" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="C106" s="9">
-        <v>19775</v>
+        <v>19774</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="9">
-        <v>5457</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>36</v>
+        <v>13829</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C107" s="9">
         <v>19775</v>
@@ -2638,13 +2646,13 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
-        <v>5483</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C108" s="3">
+      <c r="A108" s="9">
+        <v>5457</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C108" s="9">
         <v>19775</v>
       </c>
       <c r="D108" s="16" t="s">
@@ -2653,10 +2661,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
-        <v>4857</v>
+        <v>5483</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C109" s="3">
         <v>19775</v>
@@ -2667,10 +2675,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
-        <v>4910</v>
+        <v>4857</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="C110" s="3">
         <v>19775</v>
@@ -2681,10 +2689,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
-        <v>17535</v>
+        <v>4910</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C111" s="3">
         <v>19775</v>
@@ -2694,11 +2702,11 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
-        <v>163</v>
+      <c r="A112" s="3">
+        <v>17535</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="C112" s="3">
         <v>19775</v>
@@ -2709,10 +2717,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="C113" s="3">
         <v>19775</v>
@@ -2722,109 +2730,109 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
-        <v>21691</v>
+      <c r="A114" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="C114" s="3">
-        <v>21647</v>
+        <v>19775</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
-        <v>21690</v>
+        <v>21691</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C115" s="3">
         <v>21647</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
-        <v>21687</v>
+        <v>21690</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C116" s="3">
         <v>21647</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
-        <v>21688</v>
+        <v>21687</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C117" s="3">
         <v>21647</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
-        <v>21689</v>
+        <v>21688</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C118" s="3">
         <v>21647</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="3" t="s">
-        <v>165</v>
+      <c r="A119" s="3">
+        <v>21689</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="C119" s="3">
         <v>21647</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
-        <v>131</v>
+      <c r="A120" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C120" s="3">
-        <v>21648</v>
+        <v>21647</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C121" s="3">
         <v>21648</v>
@@ -2834,11 +2842,11 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
-        <v>166</v>
+      <c r="A122" s="3">
+        <v>139</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C122" s="3">
         <v>21648</v>
@@ -2849,10 +2857,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="C123" s="3">
         <v>21648</v>
@@ -2863,10 +2871,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C124" s="3">
         <v>21648</v>
@@ -2877,10 +2885,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C125" s="3">
         <v>21648</v>
@@ -2891,30 +2899,44 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C126" s="3">
+        <v>21648</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="C127" s="3">
+        <v>99998</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C126" s="3">
-        <v>99998</v>
-      </c>
-      <c r="D126" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="s">
+      <c r="B128" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B127" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C127" s="6">
+      <c r="C128" s="6">
         <v>99999</v>
       </c>
-      <c r="D127" s="18" t="s">
-        <v>100</v>
+      <c r="D128" s="18" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2927,12 +2949,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3068,26 +3090,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3111,9 +3125,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/content/dadesref/entitats/Direccions_Generals.xlsx
+++ b/content/dadesref/entitats/Direccions_Generals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/10.Direccions_generals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{9EA332EC-479E-478C-A941-C078667EA77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="14_{9EA332EC-479E-478C-A941-C078667EA77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB6E8A1E-99F9-42FA-913C-16358AD670B3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -338,15 +338,6 @@
     <t>Oficina del Govern</t>
   </si>
   <si>
-    <t>Direcció General d'Alumnat</t>
-  </si>
-  <si>
-    <t>Direcció General d'Innovació, Digitalització i Recerca Educativa</t>
-  </si>
-  <si>
-    <t>Direcció General de Currículum i Personalització</t>
-  </si>
-  <si>
     <t>Direcció General d'Ordenació i Regulació Sanitària</t>
   </si>
   <si>
@@ -567,6 +558,15 @@
   </si>
   <si>
     <t>Direcció General d'Administració Digital i d'Organització</t>
+  </si>
+  <si>
+    <t>Direcció General d'Innovació, Digitalització i Currículum</t>
+  </si>
+  <si>
+    <t>Direcció General de l'Alumnat</t>
+  </si>
+  <si>
+    <t>Direcció General d'Educació Inclusiva i Llengües</t>
   </si>
 </sst>
 </file>
@@ -1154,9 +1154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEC9D88-FB60-4891-A8A4-D4B94761FD89}">
   <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1320,7 +1318,7 @@
         <v>19819</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C13" s="9">
         <v>6</v>
@@ -1345,7 +1343,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>43</v>
@@ -1359,7 +1357,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>100</v>
@@ -1373,10 +1371,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C17" s="9">
         <v>6</v>
@@ -1471,10 +1469,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="C24" s="9">
         <v>1599</v>
@@ -1485,10 +1483,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="C25" s="9">
         <v>1599</v>
@@ -1499,10 +1497,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="C26" s="9">
         <v>1599</v>
@@ -1569,7 +1567,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>43</v>
@@ -1611,7 +1609,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>43</v>
@@ -1625,10 +1623,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C35" s="9">
         <v>2803</v>
@@ -1639,10 +1637,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C36" s="9">
         <v>2803</v>
@@ -1877,10 +1875,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C53" s="9">
         <v>3392</v>
@@ -1891,10 +1889,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C54" s="9">
         <v>3392</v>
@@ -1961,7 +1959,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>43</v>
@@ -1975,10 +1973,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C60" s="9">
         <v>4163</v>
@@ -1989,10 +1987,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C61" s="9">
         <v>4163</v>
@@ -2003,10 +2001,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C62" s="9">
         <v>4163</v>
@@ -2017,10 +2015,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C63" s="9">
         <v>4163</v>
@@ -2031,13 +2029,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>57</v>
@@ -2045,10 +2043,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C65" s="19">
         <v>13757</v>
@@ -2059,10 +2057,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C66" s="19">
         <v>13757</v>
@@ -2073,10 +2071,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C67" s="19">
         <v>13757</v>
@@ -2087,10 +2085,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C68" s="19">
         <v>13757</v>
@@ -2101,10 +2099,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C69" s="19">
         <v>13757</v>
@@ -2115,10 +2113,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C70" s="19">
         <v>13757</v>
@@ -2213,7 +2211,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>43</v>
@@ -2230,7 +2228,7 @@
         <v>19816</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C78" s="9">
         <v>19769</v>
@@ -2244,7 +2242,7 @@
         <v>20437</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C79" s="9">
         <v>19769</v>
@@ -2269,13 +2267,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>85</v>
@@ -2283,10 +2281,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C82" s="9">
         <v>19769</v>
@@ -2297,10 +2295,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C83" s="9">
         <v>19769</v>
@@ -2311,10 +2309,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C84" s="9">
         <v>19769</v>
@@ -2325,10 +2323,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C85" s="9">
         <v>19769</v>
@@ -2493,10 +2491,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C97" s="9">
         <v>19772</v>
@@ -2507,10 +2505,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C98" s="9">
         <v>19772</v>
@@ -2580,7 +2578,7 @@
         <v>13766</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C103" s="9">
         <v>19774</v>
@@ -2619,10 +2617,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C106" s="9">
         <v>19774</v>
@@ -2692,7 +2690,7 @@
         <v>4910</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C111" s="3">
         <v>19775</v>
@@ -2706,7 +2704,7 @@
         <v>17535</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C112" s="3">
         <v>19775</v>
@@ -2717,10 +2715,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C113" s="3">
         <v>19775</v>
@@ -2731,7 +2729,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>43</v>
@@ -2815,7 +2813,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>43</v>
@@ -2857,7 +2855,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>43</v>
@@ -2871,10 +2869,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C124" s="3">
         <v>21648</v>
@@ -2885,10 +2883,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C125" s="3">
         <v>21648</v>
@@ -2899,10 +2897,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C126" s="3">
         <v>21648</v>
@@ -2949,15 +2947,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3089,6 +3078,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3099,14 +3097,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3120,6 +3110,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/content/dadesref/entitats/Direccions_Generals.xlsx
+++ b/content/dadesref/entitats/Direccions_Generals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/10.Direccions_generals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="14_{9EA332EC-479E-478C-A941-C078667EA77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB6E8A1E-99F9-42FA-913C-16358AD670B3}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="14_{9EA332EC-479E-478C-A941-C078667EA77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E1A349F-FF53-4CE7-AD92-71CBBE28ABE6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,9 +383,6 @@
     <t>Direcció General de l'Acció Exterior</t>
   </si>
   <si>
-    <t>Direcció General de la Representació Institucional del Govern a l'Exterior i de la Unió Europea</t>
-  </si>
-  <si>
     <t>Direcció General de la Catalunya Exterior</t>
   </si>
   <si>
@@ -567,6 +564,9 @@
   </si>
   <si>
     <t>Direcció General d'Educació Inclusiva i Llengües</t>
+  </si>
+  <si>
+    <t>Direcció General de la Representació del Govern a l'Exterior i de la Unió Europea</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1318,7 @@
         <v>19819</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" s="9">
         <v>6</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>43</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>100</v>
@@ -1371,10 +1371,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="9">
         <v>6</v>
@@ -1469,10 +1469,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" s="9">
         <v>1599</v>
@@ -1483,10 +1483,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" s="9">
         <v>1599</v>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" s="9">
         <v>1599</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>43</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>43</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>101</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>102</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>103</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>104</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>43</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>105</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>106</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>107</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>108</v>
@@ -2029,13 +2029,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>57</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>109</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>110</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>111</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>112</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>113</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>114</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>43</v>
@@ -2228,7 +2228,7 @@
         <v>19816</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C78" s="9">
         <v>19769</v>
@@ -2242,7 +2242,7 @@
         <v>20437</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C79" s="9">
         <v>19769</v>
@@ -2267,13 +2267,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>85</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>115</v>
@@ -2295,10 +2295,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="C83" s="9">
         <v>19769</v>
@@ -2309,10 +2309,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C84" s="9">
         <v>19769</v>
@@ -2323,10 +2323,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C85" s="9">
         <v>19769</v>
@@ -2491,10 +2491,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C97" s="9">
         <v>19772</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C98" s="9">
         <v>19772</v>
@@ -2578,7 +2578,7 @@
         <v>13766</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C103" s="9">
         <v>19774</v>
@@ -2617,10 +2617,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C106" s="9">
         <v>19774</v>
@@ -2690,7 +2690,7 @@
         <v>4910</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C111" s="3">
         <v>19775</v>
@@ -2704,7 +2704,7 @@
         <v>17535</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C112" s="3">
         <v>19775</v>
@@ -2715,10 +2715,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C113" s="3">
         <v>19775</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>43</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>43</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>43</v>
@@ -2869,10 +2869,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C124" s="3">
         <v>21648</v>
@@ -2883,10 +2883,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C125" s="3">
         <v>21648</v>
@@ -2897,10 +2897,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C126" s="3">
         <v>21648</v>
@@ -2947,6 +2947,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3078,25 +3096,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3112,28 +3136,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/content/dadesref/entitats/Direccions_Generals.xlsx
+++ b/content/dadesref/entitats/Direccions_Generals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/10.Direccions_generals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="14_{9EA332EC-479E-478C-A941-C078667EA77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E1A349F-FF53-4CE7-AD92-71CBBE28ABE6}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="14_{9EA332EC-479E-478C-A941-C078667EA77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA0ABBB6-D4BE-406E-8388-6BBEDF53D9F7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,9 +104,6 @@
     <t>Direcció General de Professorat i Personal de Centres Públics</t>
   </si>
   <si>
-    <t>Direcció General de Planificació en Salut</t>
-  </si>
-  <si>
     <t>Direcció General d'Infraestructures de Mobilitat</t>
   </si>
   <si>
@@ -567,6 +564,9 @@
   </si>
   <si>
     <t>Direcció General de la Representació del Govern a l'Exterior i de la Unió Europea</t>
+  </si>
+  <si>
+    <t>Direcció General de Planificació i Recerca en Salut</t>
   </si>
 </sst>
 </file>
@@ -1167,24 +1167,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1198,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1212,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1226,7 +1226,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1240,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1254,7 +1254,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1268,7 +1268,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1276,13 +1276,13 @@
         <v>13775</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="9">
         <v>6</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1296,7 +1296,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1304,13 +1304,13 @@
         <v>12720</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="9">
         <v>6</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1318,13 +1318,13 @@
         <v>19819</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13" s="9">
         <v>6</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1338,49 +1338,49 @@
         <v>6</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="9">
         <v>6</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="9">
         <v>6</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="9">
         <v>6</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1388,13 +1388,13 @@
         <v>13958</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="9">
         <v>1599</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1408,7 +1408,7 @@
         <v>1599</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1422,7 +1422,7 @@
         <v>1599</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1436,7 +1436,7 @@
         <v>1599</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1444,13 +1444,13 @@
         <v>11387</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="9">
         <v>1599</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1464,49 +1464,49 @@
         <v>1599</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" s="9">
         <v>1599</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C25" s="9">
         <v>1599</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="9">
         <v>1599</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1514,13 +1514,13 @@
         <v>2284</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="9">
         <v>2221</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1528,13 +1528,13 @@
         <v>2340</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="9">
         <v>2221</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1542,13 +1542,13 @@
         <v>2388</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="9">
         <v>2221</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1556,27 +1556,27 @@
         <v>21672</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="9">
         <v>2221</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="9">
         <v>2221</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1584,13 +1584,13 @@
         <v>19031</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="C32" s="9">
         <v>2803</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1598,55 +1598,55 @@
         <v>21661</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="9">
         <v>2803</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="9">
         <v>2803</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="9">
         <v>2803</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="9">
         <v>2803</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1654,13 +1654,13 @@
         <v>19934</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="9">
         <v>3392</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1668,13 +1668,13 @@
         <v>21152</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" s="9">
         <v>3392</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1682,13 +1682,13 @@
         <v>18287</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="9">
         <v>3392</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1696,13 +1696,13 @@
         <v>19785</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" s="9">
         <v>3392</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1710,13 +1710,13 @@
         <v>19852</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" s="9">
         <v>3392</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1724,13 +1724,13 @@
         <v>3626</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" s="9">
         <v>3392</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1738,13 +1738,13 @@
         <v>3520</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" s="9">
         <v>3392</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1752,13 +1752,13 @@
         <v>669</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="9">
         <v>3392</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1766,13 +1766,13 @@
         <v>674</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" s="9">
         <v>3392</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1780,13 +1780,13 @@
         <v>680</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C46" s="9">
         <v>3392</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1794,13 +1794,13 @@
         <v>685</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" s="9">
         <v>3392</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1808,13 +1808,13 @@
         <v>11898</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="9">
         <v>3392</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1822,13 +1822,13 @@
         <v>15432</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="9">
         <v>3392</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1836,13 +1836,13 @@
         <v>15433</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="9">
         <v>3392</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1850,13 +1850,13 @@
         <v>20432</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C51" s="9">
         <v>3392</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1864,41 +1864,41 @@
         <v>3421</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="9">
         <v>3392</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C53" s="9">
         <v>3392</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C54" s="9">
         <v>3392</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1906,13 +1906,13 @@
         <v>11292</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C55" s="9">
         <v>4163</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1920,13 +1920,13 @@
         <v>15794</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="9">
         <v>4163</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1934,13 +1934,13 @@
         <v>4487</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" s="9">
         <v>4163</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1948,181 +1948,181 @@
         <v>12985</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" s="9">
         <v>4163</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C59" s="9">
         <v>4163</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C60" s="9">
         <v>4163</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C61" s="9">
         <v>4163</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C62" s="9">
         <v>4163</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C63" s="9">
         <v>4163</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C65" s="19">
         <v>13757</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C66" s="19">
         <v>13757</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C67" s="19">
         <v>13757</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C68" s="19">
         <v>13757</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C69" s="19">
         <v>13757</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C70" s="19">
         <v>13757</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2136,7 +2136,7 @@
         <v>13760</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2150,7 +2150,7 @@
         <v>13760</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2158,13 +2158,13 @@
         <v>15681</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" s="9">
         <v>13760</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2178,7 +2178,7 @@
         <v>13760</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2186,13 +2186,13 @@
         <v>21659</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C75" s="9">
         <v>13760</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2200,27 +2200,27 @@
         <v>20185</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C76" s="9">
         <v>13760</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C77" s="9">
         <v>13760</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2228,13 +2228,13 @@
         <v>19816</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C78" s="9">
         <v>19769</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2242,13 +2242,13 @@
         <v>20437</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C79" s="9">
         <v>19769</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2262,77 +2262,77 @@
         <v>19769</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C82" s="9">
         <v>19769</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C83" s="9">
         <v>19769</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C84" s="9">
         <v>19769</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C85" s="9">
         <v>19769</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2340,13 +2340,13 @@
         <v>20189</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C86" s="9">
         <v>19772</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2354,13 +2354,13 @@
         <v>19793</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87" s="9">
         <v>19772</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2368,13 +2368,13 @@
         <v>1116</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88" s="9">
         <v>19772</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2388,7 +2388,7 @@
         <v>19772</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2402,7 +2402,7 @@
         <v>19772</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2416,7 +2416,7 @@
         <v>19772</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2430,7 +2430,7 @@
         <v>19772</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2444,7 +2444,7 @@
         <v>19772</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2452,13 +2452,13 @@
         <v>1344</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C94" s="9">
         <v>19772</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2472,7 +2472,7 @@
         <v>19772</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2480,41 +2480,41 @@
         <v>21707</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C96" s="9">
         <v>19772</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C97" s="9">
         <v>19772</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C98" s="9">
         <v>19772</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2522,13 +2522,13 @@
         <v>5921</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C99" s="9">
         <v>19774</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2536,13 +2536,13 @@
         <v>20854</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C100" s="9">
         <v>19774</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2550,13 +2550,13 @@
         <v>18103</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C101" s="9">
         <v>19774</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2564,13 +2564,13 @@
         <v>5157</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C102" s="9">
         <v>19774</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2578,13 +2578,13 @@
         <v>13766</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C103" s="9">
         <v>19774</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2592,13 +2592,13 @@
         <v>10646</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C104" s="9">
         <v>19774</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2606,27 +2606,27 @@
         <v>21281</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C105" s="9">
         <v>19774</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C106" s="9">
         <v>19774</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2634,13 +2634,13 @@
         <v>13829</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C107" s="9">
         <v>19775</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2648,13 +2648,13 @@
         <v>5457</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C108" s="9">
         <v>19775</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2662,13 +2662,13 @@
         <v>5483</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C109" s="3">
         <v>19775</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2676,13 +2676,13 @@
         <v>4857</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C110" s="3">
         <v>19775</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2690,13 +2690,13 @@
         <v>4910</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C111" s="3">
         <v>19775</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2704,41 +2704,41 @@
         <v>17535</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C112" s="3">
         <v>19775</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C113" s="3">
         <v>19775</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C114" s="3">
         <v>19775</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2746,13 +2746,13 @@
         <v>21691</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C115" s="3">
         <v>21647</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2760,13 +2760,13 @@
         <v>21690</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C116" s="3">
         <v>21647</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2774,13 +2774,13 @@
         <v>21687</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C117" s="3">
         <v>21647</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2788,13 +2788,13 @@
         <v>21688</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C118" s="3">
         <v>21647</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2802,27 +2802,27 @@
         <v>21689</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C119" s="3">
         <v>21647</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C120" s="3">
         <v>21647</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2830,13 +2830,13 @@
         <v>131</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C121" s="3">
         <v>21648</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2844,97 +2844,97 @@
         <v>139</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C122" s="3">
         <v>21648</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C123" s="3">
         <v>21648</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C124" s="3">
         <v>21648</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C125" s="3">
         <v>21648</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C126" s="3">
         <v>21648</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="C127" s="3">
         <v>99998</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B128" s="17" t="s">
         <v>98</v>
-      </c>
-      <c r="B128" s="17" t="s">
-        <v>99</v>
       </c>
       <c r="C128" s="6">
         <v>99999</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2947,24 +2947,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3096,31 +3078,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3136,4 +3112,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/content/dadesref/entitats/Direccions_Generals.xlsx
+++ b/content/dadesref/entitats/Direccions_Generals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/10.Direccions_generals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="14_{9EA332EC-479E-478C-A941-C078667EA77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA0ABBB6-D4BE-406E-8388-6BBEDF53D9F7}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{303BC794-CFC6-4D77-9AAB-437C94348FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5F186B6-1417-483D-9E78-A0BEFA107654}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="134">
   <si>
     <t>Nom</t>
   </si>
@@ -173,9 +173,6 @@
     <t>Departament de la Presidència</t>
   </si>
   <si>
-    <t>Departament de la Vicepresidència i de Polítiques Digitals i Territori</t>
-  </si>
-  <si>
     <t>Departament d'Empresa i Treball</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t>Departament de Cultura</t>
   </si>
   <si>
-    <t>Departament de Justícia</t>
-  </si>
-  <si>
     <t>Direcció de Serveis del Departament de la Vicepresidència i de Polítiques Digitals i Territori</t>
   </si>
   <si>
@@ -245,9 +239,6 @@
     <t>Direcció General d'Innovació i Economia Digital</t>
   </si>
   <si>
-    <t>Direcció General d'Ordenació del Territori i Urbanisme</t>
-  </si>
-  <si>
     <t>Direcció General de Serveis Digitals i Experiència Ciutadana</t>
   </si>
   <si>
@@ -281,15 +272,9 @@
     <t>Direcció General de Política Marítima i Pesca Sostenible</t>
   </si>
   <si>
-    <t xml:space="preserve">Direcció General de Protecció Civil </t>
-  </si>
-  <si>
     <t>Direcció General de Coordinació de les Policies Locals</t>
   </si>
   <si>
-    <t>Departament d'Acció Exterior i Govern Obert</t>
-  </si>
-  <si>
     <t>Direcció General de la Intervenció</t>
   </si>
   <si>
@@ -320,15 +305,9 @@
     <t>Direcció General de Migracions, Refugi i Antiracisme</t>
   </si>
   <si>
-    <t>99998</t>
-  </si>
-  <si>
     <t>No consta</t>
   </si>
   <si>
-    <t>99999</t>
-  </si>
-  <si>
     <t>Altres/Diversos</t>
   </si>
   <si>
@@ -341,9 +320,6 @@
     <t>Direcció General de Professionals de la Salut</t>
   </si>
   <si>
-    <t>Direcció General d'Actuacions Territorials Estratègiques</t>
-  </si>
-  <si>
     <t>Direcció General de Nació Digital i Agenda Urbana</t>
   </si>
   <si>
@@ -407,126 +383,6 @@
     <t>Secretaria General del Consell Interuniversitari de Catalunya</t>
   </si>
   <si>
-    <t>542</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>21663</t>
-  </si>
-  <si>
-    <t>20884</t>
-  </si>
-  <si>
-    <t>20885</t>
-  </si>
-  <si>
-    <t>11475</t>
-  </si>
-  <si>
-    <t>11240</t>
-  </si>
-  <si>
-    <t>18125</t>
-  </si>
-  <si>
-    <t>19789</t>
-  </si>
-  <si>
-    <t>21718</t>
-  </si>
-  <si>
-    <t>15710</t>
-  </si>
-  <si>
-    <t>10900</t>
-  </si>
-  <si>
-    <t>6315</t>
-  </si>
-  <si>
-    <t>6307</t>
-  </si>
-  <si>
-    <t>21709</t>
-  </si>
-  <si>
-    <t>9990</t>
-  </si>
-  <si>
-    <t>13757</t>
-  </si>
-  <si>
-    <t>13813</t>
-  </si>
-  <si>
-    <t>5115</t>
-  </si>
-  <si>
-    <t>20430</t>
-  </si>
-  <si>
-    <t>11010</t>
-  </si>
-  <si>
-    <t>15772</t>
-  </si>
-  <si>
-    <t>5075</t>
-  </si>
-  <si>
-    <t>21658</t>
-  </si>
-  <si>
-    <t>19769</t>
-  </si>
-  <si>
-    <t>19802</t>
-  </si>
-  <si>
-    <t>21048</t>
-  </si>
-  <si>
-    <t>21706</t>
-  </si>
-  <si>
-    <t>21047</t>
-  </si>
-  <si>
-    <t>21056</t>
-  </si>
-  <si>
-    <t>1257</t>
-  </si>
-  <si>
-    <t>1535</t>
-  </si>
-  <si>
-    <t>21728</t>
-  </si>
-  <si>
-    <t>21721</t>
-  </si>
-  <si>
-    <t>13850</t>
-  </si>
-  <si>
-    <t>21681</t>
-  </si>
-  <si>
-    <t>21715</t>
-  </si>
-  <si>
-    <t>21650</t>
-  </si>
-  <si>
-    <t>21665</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
     <t>Direcció General de Dades Obertes, Transparència i Col·laboració</t>
   </si>
   <si>
@@ -542,15 +398,9 @@
     <t>Direcció General de la Inspecció de Treball de Catalunya</t>
   </si>
   <si>
-    <t>13795</t>
-  </si>
-  <si>
     <t>Casa de la Generalitat a Perpinyà</t>
   </si>
   <si>
-    <t>13599</t>
-  </si>
-  <si>
     <t>Direcció General d'Administració Digital i d'Organització</t>
   </si>
   <si>
@@ -567,6 +417,24 @@
   </si>
   <si>
     <t>Direcció General de Planificació i Recerca en Salut</t>
+  </si>
+  <si>
+    <t>Direcció General d'Estratègia Territorial</t>
+  </si>
+  <si>
+    <t>Direcció General d'Ordenació del Territori, Urbanisme i Arquitectura</t>
+  </si>
+  <si>
+    <t>Direcció General de Protecció Civil</t>
+  </si>
+  <si>
+    <t>Departament de Territori</t>
+  </si>
+  <si>
+    <t>Departament de Justícia, Drets i Memòria</t>
+  </si>
+  <si>
+    <t>Departament d'Acció Exterior i Unió Europea</t>
   </si>
 </sst>
 </file>
@@ -706,9 +574,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -725,7 +590,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -735,12 +599,34 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Hoja2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -817,21 +703,6 @@
         <sz val="11"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -880,10 +751,10 @@
     <sortCondition ref="B4:B109"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2791C13D-CCDB-4A50-95FC-3D2E304B7425}" name="Id" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{E54988AA-46C0-4D6B-9326-CB01440F96DF}" name="Nom" dataDxfId="2" dataCellStyle="Normal_Hoja2"/>
-    <tableColumn id="3" xr3:uid="{7C05E9E4-CCEC-4FBC-8EB0-AF25A4908F4E}" name="Departament Id" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{C1B5951D-2624-4E83-AC78-E274B856D089}" name="Departament Nom" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2791C13D-CCDB-4A50-95FC-3D2E304B7425}" name="Id" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{E54988AA-46C0-4D6B-9326-CB01440F96DF}" name="Nom" dataDxfId="3" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="3" xr3:uid="{7C05E9E4-CCEC-4FBC-8EB0-AF25A4908F4E}" name="Departament Id" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{C1B5951D-2624-4E83-AC78-E274B856D089}" name="Departament Nom" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1181,1484 +1052,1484 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>19784</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>6</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>648</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>12768</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>13803</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>6</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>11747</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>85</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8">
+        <v>6</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>13775</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="8">
+        <v>6</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>20946</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8">
+        <v>6</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>12720</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>19784</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="C12" s="8">
         <v>6</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>648</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>19819</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="8">
         <v>6</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>12768</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>727</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
         <v>6</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>13803</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9">
-        <v>6</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>11747</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9">
-        <v>6</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>85</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="9">
-        <v>6</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>13775</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="9">
-        <v>6</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>20946</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="9">
-        <v>6</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>12720</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="9">
-        <v>6</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>19819</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="9">
-        <v>6</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>727</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9">
-        <v>6</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>125</v>
+      <c r="A15" s="18">
+        <v>35</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>6</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="18">
+        <v>542</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="8">
+        <v>6</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>13599</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>13958</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1599</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>18122</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1599</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>18121</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1599</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>18123</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1599</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>11387</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1599</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>15704</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1599</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="18">
+        <v>21663</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="9">
-        <v>6</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="9">
-        <v>6</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>13958</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="C24" s="8">
         <v>1599</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>18122</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="D24" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
+        <v>20884</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="8">
         <v>1599</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>18121</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="D25" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
+        <v>20885</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="8">
         <v>1599</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>18123</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="9">
-        <v>1599</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>11387</v>
-      </c>
-      <c r="B22" s="12" t="s">
+      <c r="D26" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>2284</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="8">
+        <v>2221</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>2340</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="8">
+        <v>2221</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>2388</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="8">
+        <v>2221</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>21672</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="9">
-        <v>1599</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>15704</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="9">
-        <v>1599</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" s="9">
-        <v>1599</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="9">
-        <v>1599</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="9">
-        <v>1599</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
-        <v>2284</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="9">
+      <c r="C30" s="8">
         <v>2221</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
-        <v>2340</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="9">
-        <v>2221</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
-        <v>2388</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="9">
-        <v>2221</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
-        <v>21672</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="9">
-        <v>2221</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>55</v>
+      <c r="D30" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>129</v>
+      <c r="A31" s="18">
+        <v>11475</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>2221</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>55</v>
+      <c r="D31" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>19031</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" s="9">
+      <c r="B32" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="8">
         <v>2803</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>52</v>
+      <c r="D32" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+      <c r="A33" s="8">
         <v>21661</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="9">
+      <c r="B33" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="8">
         <v>2803</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>52</v>
+      <c r="D33" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>130</v>
+      <c r="A34" s="18">
+        <v>11240</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>2803</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>52</v>
+      <c r="D34" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="18">
+        <v>18125</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="8">
+        <v>2803</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="18">
+        <v>19789</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="8">
+        <v>2803</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>19934</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="8">
+        <v>3392</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="9">
-        <v>2803</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="9">
-        <v>2803</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
-        <v>19934</v>
-      </c>
-      <c r="B37" s="12" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>21152</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="8">
+        <v>3392</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>18287</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="8">
+        <v>3392</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
+        <v>19785</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C40" s="8">
         <v>3392</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
-        <v>21152</v>
-      </c>
-      <c r="B38" s="12" t="s">
+      <c r="D40" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>19852</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="8">
+        <v>3392</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
+        <v>3626</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="8">
+        <v>3392</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
+        <v>3520</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="8">
+        <v>3392</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
+        <v>669</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C44" s="8">
         <v>3392</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
-        <v>18287</v>
-      </c>
-      <c r="B39" s="12" t="s">
+      <c r="D44" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>674</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C45" s="8">
         <v>3392</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
-        <v>19785</v>
-      </c>
-      <c r="B40" s="12" t="s">
+      <c r="D45" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>680</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C46" s="8">
         <v>3392</v>
       </c>
-      <c r="D40" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
-        <v>19852</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="9">
+      <c r="D46" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
+        <v>685</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="8">
         <v>3392</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
-        <v>3626</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="9">
+      <c r="D47" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
+        <v>11898</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="8">
         <v>3392</v>
       </c>
-      <c r="D42" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="9">
-        <v>3520</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="9">
+      <c r="D48" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
+        <v>15432</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="8">
         <v>3392</v>
       </c>
-      <c r="D43" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
-        <v>669</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="9">
+      <c r="D49" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
+        <v>15433</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="8">
         <v>3392</v>
       </c>
-      <c r="D44" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
-        <v>674</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="9">
+      <c r="D50" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
+        <v>20432</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="8">
         <v>3392</v>
       </c>
-      <c r="D45" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="14">
-        <v>680</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="9">
+      <c r="D51" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="8">
+        <v>3421</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="8">
         <v>3392</v>
       </c>
-      <c r="D46" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="9">
-        <v>685</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="9">
+      <c r="D52" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="18">
+        <v>15710</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="8">
         <v>3392</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
-        <v>11898</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="9">
+      <c r="D53" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="18">
+        <v>21718</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="8">
         <v>3392</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
-        <v>15432</v>
-      </c>
-      <c r="B49" s="12" t="s">
+      <c r="D54" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
+        <v>11292</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="8">
+        <v>4163</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>15794</v>
+      </c>
+      <c r="B56" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="9">
-        <v>3392</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="9">
-        <v>15433</v>
-      </c>
-      <c r="B50" s="12" t="s">
+      <c r="C56" s="8">
+        <v>4163</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
+        <v>4487</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="9">
-        <v>3392</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="9">
-        <v>20432</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="9">
-        <v>3392</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="9">
-        <v>3421</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="9">
-        <v>3392</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="9">
-        <v>3392</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="9">
-        <v>3392</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
-        <v>11292</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="9">
+      <c r="C57" s="8">
         <v>4163</v>
       </c>
-      <c r="D55" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="7">
-        <v>15794</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="9">
+      <c r="D57" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>12985</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="8">
         <v>4163</v>
       </c>
-      <c r="D56" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="7">
-        <v>4487</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="9">
-        <v>4163</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="7">
-        <v>12985</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="9">
-        <v>4163</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>51</v>
+      <c r="D58" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
-        <v>135</v>
+      <c r="A59" s="18">
+        <v>10900</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <v>4163</v>
       </c>
-      <c r="D59" s="16" t="s">
-        <v>51</v>
+      <c r="D59" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
-        <v>136</v>
+      <c r="A60" s="18">
+        <v>6315</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" s="9">
+        <v>96</v>
+      </c>
+      <c r="C60" s="8">
         <v>4163</v>
       </c>
-      <c r="D60" s="16" t="s">
-        <v>51</v>
+      <c r="D60" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
-        <v>137</v>
+      <c r="A61" s="18">
+        <v>6307</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C61" s="9">
+        <v>97</v>
+      </c>
+      <c r="C61" s="8">
         <v>4163</v>
       </c>
-      <c r="D61" s="16" t="s">
-        <v>51</v>
+      <c r="D61" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
-        <v>138</v>
+      <c r="A62" s="18">
+        <v>21709</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="9">
+        <v>98</v>
+      </c>
+      <c r="C62" s="8">
         <v>4163</v>
       </c>
-      <c r="D62" s="16" t="s">
-        <v>51</v>
+      <c r="D62" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
-        <v>139</v>
+      <c r="A63" s="18">
+        <v>9990</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" s="9">
+        <v>99</v>
+      </c>
+      <c r="C63" s="8">
         <v>4163</v>
       </c>
-      <c r="D63" s="16" t="s">
-        <v>51</v>
+      <c r="D63" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
-        <v>141</v>
+      <c r="A64" s="18">
+        <v>13813</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>56</v>
+      <c r="C64" s="19">
+        <v>13757</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
-        <v>142</v>
+      <c r="A65" s="18">
+        <v>5115</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C65" s="19">
+        <v>100</v>
+      </c>
+      <c r="C65" s="17">
         <v>13757</v>
       </c>
-      <c r="D65" s="16" t="s">
-        <v>56</v>
+      <c r="D65" s="14" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
-        <v>143</v>
+      <c r="A66" s="18">
+        <v>20430</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C66" s="19">
+        <v>101</v>
+      </c>
+      <c r="C66" s="17">
         <v>13757</v>
       </c>
-      <c r="D66" s="16" t="s">
-        <v>56</v>
+      <c r="D66" s="14" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
-        <v>144</v>
+      <c r="A67" s="18">
+        <v>11010</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C67" s="19">
+        <v>102</v>
+      </c>
+      <c r="C67" s="17">
         <v>13757</v>
       </c>
-      <c r="D67" s="16" t="s">
-        <v>56</v>
+      <c r="D67" s="14" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="7" t="s">
-        <v>145</v>
+      <c r="A68" s="18">
+        <v>15772</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C68" s="19">
+        <v>103</v>
+      </c>
+      <c r="C68" s="17">
         <v>13757</v>
       </c>
-      <c r="D68" s="16" t="s">
-        <v>56</v>
+      <c r="D68" s="14" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
-        <v>146</v>
+      <c r="A69" s="18">
+        <v>5075</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C69" s="19">
+        <v>104</v>
+      </c>
+      <c r="C69" s="17">
         <v>13757</v>
       </c>
-      <c r="D69" s="16" t="s">
-        <v>56</v>
+      <c r="D69" s="14" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
-        <v>147</v>
+      <c r="A70" s="18">
+        <v>21658</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C70" s="19">
+        <v>105</v>
+      </c>
+      <c r="C70" s="17">
         <v>13757</v>
       </c>
-      <c r="D70" s="16" t="s">
-        <v>56</v>
+      <c r="D70" s="14" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="7">
+      <c r="A71" s="8">
         <v>8042</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="8">
         <v>13760</v>
       </c>
-      <c r="D71" s="16" t="s">
-        <v>53</v>
+      <c r="D71" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="7">
+      <c r="A72" s="8">
         <v>866</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="8">
         <v>13760</v>
       </c>
-      <c r="D72" s="16" t="s">
-        <v>53</v>
+      <c r="D72" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="9">
+      <c r="A73" s="8">
         <v>15681</v>
       </c>
-      <c r="B73" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" s="9">
+      <c r="B73" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="8">
         <v>13760</v>
       </c>
-      <c r="D73" s="16" t="s">
-        <v>53</v>
+      <c r="D73" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="9">
+      <c r="A74" s="8">
         <v>18156</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="8">
         <v>13760</v>
       </c>
-      <c r="D74" s="16" t="s">
-        <v>53</v>
+      <c r="D74" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="9">
+      <c r="A75" s="8">
         <v>21659</v>
       </c>
-      <c r="B75" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C75" s="9">
+      <c r="B75" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="8">
         <v>13760</v>
       </c>
-      <c r="D75" s="16" t="s">
-        <v>53</v>
+      <c r="D75" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="9">
+      <c r="A76" s="8">
         <v>20185</v>
       </c>
-      <c r="B76" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C76" s="9">
+      <c r="B76" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="8">
         <v>13760</v>
       </c>
-      <c r="D76" s="16" t="s">
-        <v>53</v>
+      <c r="D76" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="9" t="s">
-        <v>169</v>
+      <c r="A77" s="18">
+        <v>13795</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="8">
         <v>13760</v>
       </c>
-      <c r="D77" s="16" t="s">
-        <v>53</v>
+      <c r="D77" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="9">
+      <c r="A78" s="8">
         <v>19816</v>
       </c>
-      <c r="B78" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C78" s="9">
+      <c r="B78" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" s="8">
         <v>19769</v>
       </c>
-      <c r="D78" s="16" t="s">
-        <v>84</v>
+      <c r="D78" s="14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="9">
+      <c r="A79" s="8">
         <v>20437</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C79" s="9">
+      <c r="B79" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" s="8">
         <v>19769</v>
       </c>
-      <c r="D79" s="16" t="s">
-        <v>84</v>
+      <c r="D79" s="14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="9">
+      <c r="A80" s="8">
         <v>15754</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="8">
         <v>19769</v>
       </c>
-      <c r="D80" s="16" t="s">
-        <v>84</v>
+      <c r="D80" s="14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="9" t="s">
-        <v>149</v>
+      <c r="A81" s="18">
+        <v>19802</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D81" s="16" t="s">
-        <v>84</v>
+      <c r="C81" s="18">
+        <v>19769</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="9" t="s">
-        <v>150</v>
+      <c r="A82" s="18">
+        <v>21048</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C82" s="9">
+        <v>106</v>
+      </c>
+      <c r="C82" s="8">
         <v>19769</v>
       </c>
-      <c r="D82" s="16" t="s">
-        <v>84</v>
+      <c r="D82" s="14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="9" t="s">
-        <v>151</v>
+      <c r="A83" s="18">
+        <v>21706</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C83" s="9">
+        <v>126</v>
+      </c>
+      <c r="C83" s="8">
         <v>19769</v>
       </c>
-      <c r="D83" s="16" t="s">
-        <v>84</v>
+      <c r="D83" s="14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="9" t="s">
-        <v>152</v>
+      <c r="A84" s="18">
+        <v>21047</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C84" s="9">
+        <v>107</v>
+      </c>
+      <c r="C84" s="8">
         <v>19769</v>
       </c>
-      <c r="D84" s="16" t="s">
-        <v>84</v>
+      <c r="D84" s="14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="9" t="s">
-        <v>153</v>
+      <c r="A85" s="18">
+        <v>21056</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C85" s="9">
+        <v>108</v>
+      </c>
+      <c r="C85" s="8">
         <v>19769</v>
       </c>
-      <c r="D85" s="16" t="s">
-        <v>84</v>
+      <c r="D85" s="14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="9">
+      <c r="A86" s="8">
         <v>20189</v>
       </c>
-      <c r="B86" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C86" s="9">
+      <c r="B86" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="8">
         <v>19772</v>
       </c>
-      <c r="D86" s="16" t="s">
-        <v>48</v>
+      <c r="D86" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="9">
+      <c r="A87" s="8">
         <v>19793</v>
       </c>
-      <c r="B87" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C87" s="9">
+      <c r="B87" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="8">
         <v>19772</v>
       </c>
-      <c r="D87" s="16" t="s">
-        <v>48</v>
+      <c r="D87" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="7">
+      <c r="A88" s="8">
         <v>1116</v>
       </c>
-      <c r="B88" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C88" s="9">
+      <c r="B88" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C88" s="8">
         <v>19772</v>
       </c>
-      <c r="D88" s="16" t="s">
-        <v>48</v>
+      <c r="D88" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="7">
+      <c r="A89" s="8">
         <v>1488</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="8">
         <v>19772</v>
       </c>
-      <c r="D89" s="16" t="s">
-        <v>48</v>
+      <c r="D89" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="9">
+      <c r="A90" s="8">
         <v>1300</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="8">
         <v>19772</v>
       </c>
-      <c r="D90" s="16" t="s">
-        <v>48</v>
+      <c r="D90" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="9">
+      <c r="A91" s="8">
         <v>1274</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="8">
         <v>19772</v>
       </c>
-      <c r="D91" s="16" t="s">
-        <v>48</v>
+      <c r="D91" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="9">
+      <c r="A92" s="8">
         <v>19792</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="8">
         <v>19772</v>
       </c>
-      <c r="D92" s="16" t="s">
-        <v>48</v>
+      <c r="D92" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="9">
+      <c r="A93" s="8">
         <v>18135</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="8">
         <v>19772</v>
       </c>
-      <c r="D93" s="16" t="s">
-        <v>48</v>
+      <c r="D93" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="9">
+      <c r="A94" s="8">
         <v>1344</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="8">
         <v>19772</v>
       </c>
-      <c r="D94" s="16" t="s">
-        <v>48</v>
+      <c r="D94" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="7">
+      <c r="A95" s="8">
         <v>19786</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="8">
         <v>19772</v>
       </c>
-      <c r="D95" s="16" t="s">
-        <v>48</v>
+      <c r="D95" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="9">
+      <c r="A96" s="8">
         <v>21707</v>
       </c>
-      <c r="B96" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C96" s="9">
+      <c r="B96" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C96" s="8">
         <v>19772</v>
       </c>
-      <c r="D96" s="16" t="s">
-        <v>48</v>
+      <c r="D96" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="9" t="s">
-        <v>154</v>
+      <c r="A97" s="18">
+        <v>1257</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C97" s="9">
+        <v>109</v>
+      </c>
+      <c r="C97" s="8">
         <v>19772</v>
       </c>
-      <c r="D97" s="16" t="s">
-        <v>48</v>
+      <c r="D97" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="9" t="s">
-        <v>155</v>
+      <c r="A98" s="18">
+        <v>1535</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" s="8">
+        <v>19772</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="8">
+        <v>5921</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="8">
+        <v>19774</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="8">
+        <v>20854</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" s="8">
+        <v>19774</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="8">
+        <v>18103</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="8">
+        <v>19774</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="8">
+        <v>5157</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="8">
+        <v>19774</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="8">
+        <v>13766</v>
+      </c>
+      <c r="B103" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C98" s="9">
-        <v>19772</v>
-      </c>
-      <c r="D98" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="9">
-        <v>5921</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C99" s="9">
+      <c r="C103" s="8">
         <v>19774</v>
       </c>
-      <c r="D99" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="9">
-        <v>20854</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C100" s="9">
+      <c r="D103" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="8">
+        <v>10646</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104" s="8">
         <v>19774</v>
       </c>
-      <c r="D100" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="9">
-        <v>18103</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C101" s="9">
+      <c r="D104" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="8">
+        <v>21281</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105" s="8">
         <v>19774</v>
       </c>
-      <c r="D101" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="9">
-        <v>5157</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C102" s="9">
+      <c r="D105" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="18">
+        <v>21728</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" s="8">
         <v>19774</v>
       </c>
-      <c r="D102" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="9">
-        <v>13766</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C103" s="9">
-        <v>19774</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="9">
-        <v>10646</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C104" s="9">
-        <v>19774</v>
-      </c>
-      <c r="D104" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="9">
-        <v>21281</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C105" s="9">
-        <v>19774</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C106" s="9">
-        <v>19774</v>
-      </c>
-      <c r="D106" s="16" t="s">
-        <v>54</v>
+      <c r="D106" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="9">
+      <c r="A107" s="8">
         <v>13829</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="8">
         <v>19775</v>
       </c>
-      <c r="D107" s="16" t="s">
-        <v>47</v>
+      <c r="D107" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="9">
+      <c r="A108" s="8">
         <v>5457</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C108" s="8">
         <v>19775</v>
       </c>
-      <c r="D108" s="16" t="s">
-        <v>47</v>
+      <c r="D108" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
+      <c r="A109" s="8">
         <v>5483</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -2667,12 +2538,12 @@
       <c r="C109" s="3">
         <v>19775</v>
       </c>
-      <c r="D109" s="16" t="s">
-        <v>47</v>
+      <c r="D109" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
+      <c r="A110" s="8">
         <v>4857</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -2681,55 +2552,55 @@
       <c r="C110" s="3">
         <v>19775</v>
       </c>
-      <c r="D110" s="16" t="s">
-        <v>47</v>
+      <c r="D110" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="3">
+      <c r="A111" s="8">
         <v>4910</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="C111" s="3">
         <v>19775</v>
       </c>
-      <c r="D111" s="16" t="s">
-        <v>47</v>
+      <c r="D111" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
+      <c r="A112" s="8">
         <v>17535</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="C112" s="3">
         <v>19775</v>
       </c>
-      <c r="D112" s="16" t="s">
-        <v>47</v>
+      <c r="D112" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
-        <v>157</v>
+      <c r="A113" s="18">
+        <v>21721</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C113" s="3">
         <v>19775</v>
       </c>
-      <c r="D113" s="16" t="s">
-        <v>47</v>
+      <c r="D113" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
-        <v>158</v>
+      <c r="A114" s="18">
+        <v>13850</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>42</v>
@@ -2737,83 +2608,83 @@
       <c r="C114" s="3">
         <v>19775</v>
       </c>
-      <c r="D114" s="16" t="s">
-        <v>47</v>
+      <c r="D114" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="3">
+      <c r="A115" s="8">
         <v>21691</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C115" s="3">
         <v>21647</v>
       </c>
-      <c r="D115" s="16" t="s">
-        <v>89</v>
+      <c r="D115" s="14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
+      <c r="A116" s="8">
         <v>21690</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C116" s="3">
         <v>21647</v>
       </c>
-      <c r="D116" s="16" t="s">
-        <v>89</v>
+      <c r="D116" s="14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="3">
+      <c r="A117" s="8">
         <v>21687</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C117" s="3">
         <v>21647</v>
       </c>
-      <c r="D117" s="16" t="s">
-        <v>89</v>
+      <c r="D117" s="14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
+      <c r="A118" s="8">
         <v>21688</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C118" s="3">
         <v>21647</v>
       </c>
-      <c r="D118" s="16" t="s">
+      <c r="D118" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="8">
+        <v>21689</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
-        <v>21689</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="C119" s="3">
         <v>21647</v>
       </c>
-      <c r="D119" s="16" t="s">
-        <v>89</v>
+      <c r="D119" s="14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
-        <v>159</v>
+      <c r="A120" s="18">
+        <v>21681</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>42</v>
@@ -2821,12 +2692,12 @@
       <c r="C120" s="3">
         <v>21647</v>
       </c>
-      <c r="D120" s="16" t="s">
-        <v>89</v>
+      <c r="D120" s="14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
+      <c r="A121" s="8">
         <v>131</v>
       </c>
       <c r="B121" s="5" t="s">
@@ -2835,12 +2706,12 @@
       <c r="C121" s="3">
         <v>21648</v>
       </c>
-      <c r="D121" s="16" t="s">
-        <v>50</v>
+      <c r="D121" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
+      <c r="A122" s="8">
         <v>139</v>
       </c>
       <c r="B122" s="5" t="s">
@@ -2849,13 +2720,13 @@
       <c r="C122" s="3">
         <v>21648</v>
       </c>
-      <c r="D122" s="16" t="s">
-        <v>50</v>
+      <c r="D122" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
-        <v>160</v>
+      <c r="A123" s="18">
+        <v>21715</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>42</v>
@@ -2863,78 +2734,78 @@
       <c r="C123" s="3">
         <v>21648</v>
       </c>
-      <c r="D123" s="16" t="s">
-        <v>50</v>
+      <c r="D123" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
-        <v>161</v>
+      <c r="A124" s="18">
+        <v>21650</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C124" s="3">
         <v>21648</v>
       </c>
-      <c r="D124" s="16" t="s">
-        <v>50</v>
+      <c r="D124" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
-        <v>162</v>
+      <c r="A125" s="18">
+        <v>21665</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C125" s="3">
         <v>21648</v>
       </c>
-      <c r="D125" s="16" t="s">
-        <v>50</v>
+      <c r="D125" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
-        <v>163</v>
+      <c r="A126" s="18">
+        <v>116</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C126" s="3">
         <v>21648</v>
       </c>
-      <c r="D126" s="16" t="s">
-        <v>50</v>
+      <c r="D126" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>95</v>
+      <c r="A127" s="18">
+        <v>99998</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C127" s="3">
         <v>99998</v>
       </c>
-      <c r="D127" s="16" t="s">
-        <v>96</v>
+      <c r="D127" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B128" s="17" t="s">
-        <v>98</v>
+      <c r="A128" s="18">
+        <v>99999</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="C128" s="6">
         <v>99999</v>
       </c>
-      <c r="D128" s="18" t="s">
-        <v>98</v>
+      <c r="D128" s="16" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2947,6 +2818,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3078,15 +2958,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3097,6 +2968,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3110,14 +2989,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/content/dadesref/entitats/Direccions_Generals.xlsx
+++ b/content/dadesref/entitats/Direccions_Generals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/10.Direccions_generals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{303BC794-CFC6-4D77-9AAB-437C94348FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5F186B6-1417-483D-9E78-A0BEFA107654}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="13_ncr:1_{303BC794-CFC6-4D77-9AAB-437C94348FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F454501F-E449-454C-AE55-76CC0C74D084}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="131">
   <si>
     <t>Nom</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Direcció General de Pressupostos</t>
   </si>
   <si>
-    <t>Direcció General de Promoció Econòmica, Competència i Regulació</t>
-  </si>
-  <si>
     <t>Direcció General del Patrimoni de la Generalitat de Catalunya</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
     <t>Departament de Cultura</t>
   </si>
   <si>
-    <t>Direcció de Serveis del Departament de la Vicepresidència i de Polítiques Digitals i Territori</t>
-  </si>
-  <si>
     <t>Direcció General del Patrimoni Cultural</t>
   </si>
   <si>
@@ -236,9 +230,6 @@
     <t>Direcció General de Societat Digital</t>
   </si>
   <si>
-    <t>Direcció General d'Innovació i Economia Digital</t>
-  </si>
-  <si>
     <t>Direcció General de Serveis Digitals i Experiència Ciutadana</t>
   </si>
   <si>
@@ -278,15 +269,9 @@
     <t>Direcció General de la Intervenció</t>
   </si>
   <si>
-    <t>Direcció General d'Anàlisi Prospectiva Econòmica</t>
-  </si>
-  <si>
     <t>Direcció de Serveis del Departament d'Economia i Hisenda</t>
   </si>
   <si>
-    <t>Direcció General de Fons Europeus</t>
-  </si>
-  <si>
     <t>Departament d'Igualtat i Feminismes</t>
   </si>
   <si>
@@ -320,9 +305,6 @@
     <t>Direcció General de Professionals de la Salut</t>
   </si>
   <si>
-    <t>Direcció General de Nació Digital i Agenda Urbana</t>
-  </si>
-  <si>
     <t>Direcció General de Qualitat Ambiental i Canvi Climàtic</t>
   </si>
   <si>
@@ -359,9 +341,6 @@
     <t>Direcció General de la Catalunya Exterior</t>
   </si>
   <si>
-    <t>Direcció General de Prospectiva i d'Innovació en l'Acció Exterior</t>
-  </si>
-  <si>
     <t>Assessoria Jurídica</t>
   </si>
   <si>
@@ -371,9 +350,6 @@
     <t>Direcció General de Provisió de Serveis</t>
   </si>
   <si>
-    <t>Direcció General d'Innovació i Emprenedoria</t>
-  </si>
-  <si>
     <t>Direcció General de Transferència del Coneixement</t>
   </si>
   <si>
@@ -383,27 +359,15 @@
     <t>Secretaria General del Consell Interuniversitari de Catalunya</t>
   </si>
   <si>
-    <t>Direcció General de Dades Obertes, Transparència i Col·laboració</t>
-  </si>
-  <si>
-    <t>Direcció General de Participació, Processos Electorals i Qualitat Democràtica</t>
-  </si>
-  <si>
     <t>Direcció General de la Joventut</t>
   </si>
   <si>
     <t>Direcció General d'Economia Social i Solidària, el Tercer Sector i les Cooperatives</t>
   </si>
   <si>
-    <t>Direcció General de la Inspecció de Treball de Catalunya</t>
-  </si>
-  <si>
     <t>Casa de la Generalitat a Perpinyà</t>
   </si>
   <si>
-    <t>Direcció General d'Administració Digital i d'Organització</t>
-  </si>
-  <si>
     <t>Direcció General d'Innovació, Digitalització i Currículum</t>
   </si>
   <si>
@@ -435,13 +399,40 @@
   </si>
   <si>
     <t>Departament d'Acció Exterior i Unió Europea</t>
+  </si>
+  <si>
+    <t>Direcció General d'Administració Digital</t>
+  </si>
+  <si>
+    <t>Direcció de Serveis del Departament de Territori</t>
+  </si>
+  <si>
+    <t>Direcció General d'Agenda i Renovació Urbana</t>
+  </si>
+  <si>
+    <t>Direcció General d'Anàlisi i Prospectiva Econòmica</t>
+  </si>
+  <si>
+    <t>Direcció General de Fons Europeus i Ajuts d'Estat</t>
+  </si>
+  <si>
+    <t>Direcció General de la Inspecció de Treball</t>
+  </si>
+  <si>
+    <t>Direcció General d'Innovació, Economia Digital i Emprenedoria</t>
+  </si>
+  <si>
+    <t>20437</t>
+  </si>
+  <si>
+    <t>Direcció General de Bon Govern, Innovació i Qualitat Democràtiques</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +469,12 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -560,7 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -605,28 +602,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Hoja2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -701,6 +688,22 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -745,16 +748,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C146AC6B-42A5-4BED-855F-DA99D6D308F0}" name="Tabla13" displayName="Tabla13" ref="A3:D128" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D109">
-    <sortCondition ref="C4:C109"/>
-    <sortCondition ref="B4:B109"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C146AC6B-42A5-4BED-855F-DA99D6D308F0}" name="Tabla13" displayName="Tabla13" ref="A3:D124" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D124">
+    <sortCondition ref="C4:C124"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2791C13D-CCDB-4A50-95FC-3D2E304B7425}" name="Id" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{E54988AA-46C0-4D6B-9326-CB01440F96DF}" name="Nom" dataDxfId="3" dataCellStyle="Normal_Hoja2"/>
-    <tableColumn id="3" xr3:uid="{7C05E9E4-CCEC-4FBC-8EB0-AF25A4908F4E}" name="Departament Id" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{C1B5951D-2624-4E83-AC78-E274B856D089}" name="Departament Nom" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{2791C13D-CCDB-4A50-95FC-3D2E304B7425}" name="Id" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{E54988AA-46C0-4D6B-9326-CB01440F96DF}" name="Nom" dataDxfId="2" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="3" xr3:uid="{7C05E9E4-CCEC-4FBC-8EB0-AF25A4908F4E}" name="Departament Id" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{C1B5951D-2624-4E83-AC78-E274B856D089}" name="Departament Nom" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1023,39 +1025,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEC9D88-FB60-4891-A8A4-D4B94761FD89}">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1069,7 +1071,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1083,7 +1085,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1097,7 +1099,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1111,7 +1113,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1125,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1139,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1147,13 +1149,13 @@
         <v>13775</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="8">
         <v>6</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1167,7 +1169,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1175,13 +1177,13 @@
         <v>12720</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="8">
         <v>6</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1195,7 +1197,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1209,7 +1211,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1217,13 +1219,13 @@
         <v>35</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="8">
         <v>6</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1231,13 +1233,13 @@
         <v>542</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C16" s="8">
         <v>6</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1245,713 +1247,713 @@
         <v>13599</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C17" s="8">
         <v>6</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
-        <v>13958</v>
+        <v>669</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C18" s="8">
-        <v>1599</v>
+        <v>6</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
-        <v>18122</v>
+        <v>674</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C19" s="8">
-        <v>1599</v>
+        <v>6</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
-        <v>18121</v>
+        <v>15432</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C20" s="8">
-        <v>1599</v>
+        <v>6</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
-        <v>18123</v>
+        <v>15433</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="C21" s="8">
-        <v>1599</v>
+        <v>6</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
-        <v>11387</v>
+        <v>11898</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C22" s="8">
-        <v>1599</v>
+        <v>6</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
-        <v>15704</v>
+        <v>680</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="C23" s="8">
-        <v>1599</v>
+        <v>6</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
-        <v>21663</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>124</v>
+      <c r="A24" s="8">
+        <v>685</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="C24" s="8">
-        <v>1599</v>
+        <v>6</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
-        <v>20884</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>123</v>
+      <c r="A25" s="8">
+        <v>20432</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="C25" s="8">
-        <v>1599</v>
+        <v>6</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
-        <v>20885</v>
+        <v>11010</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C26" s="8">
-        <v>1599</v>
+        <v>6</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>2284</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>56</v>
+      <c r="A27" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="C27" s="8">
-        <v>2221</v>
+        <v>6</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
-        <v>2340</v>
+        <v>19786</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="C28" s="8">
-        <v>2221</v>
+        <v>6</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
-        <v>2388</v>
+        <v>19785</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C29" s="8">
-        <v>2221</v>
+        <v>6</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
-        <v>21672</v>
+        <v>13958</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C30" s="8">
-        <v>2221</v>
+        <v>1599</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
-        <v>11475</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>42</v>
+      <c r="A31" s="8">
+        <v>18122</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C31" s="8">
-        <v>2221</v>
+        <v>1599</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
-        <v>19031</v>
+        <v>18121</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="C32" s="8">
-        <v>2803</v>
+        <v>1599</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
-        <v>21661</v>
+        <v>18123</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C33" s="8">
-        <v>2803</v>
+        <v>1599</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="18">
-        <v>11240</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>42</v>
+      <c r="A34" s="8">
+        <v>11387</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C34" s="8">
-        <v>2803</v>
+        <v>1599</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="18">
-        <v>18125</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>93</v>
+      <c r="A35" s="8">
+        <v>15704</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C35" s="8">
-        <v>2803</v>
+        <v>1599</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
-        <v>19789</v>
+        <v>21663</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C36" s="8">
-        <v>2803</v>
+        <v>1599</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
-        <v>19934</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>66</v>
+      <c r="A37" s="18">
+        <v>20884</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="C37" s="8">
-        <v>3392</v>
+        <v>1599</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
-        <v>21152</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>67</v>
+      <c r="A38" s="18">
+        <v>20885</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="C38" s="8">
-        <v>3392</v>
+        <v>1599</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
-        <v>18287</v>
+        <v>2284</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="C39" s="8">
-        <v>3392</v>
+        <v>2221</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
-        <v>19785</v>
+        <v>2340</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C40" s="8">
-        <v>3392</v>
+        <v>2221</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
-        <v>19852</v>
+        <v>2388</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C41" s="8">
-        <v>3392</v>
+        <v>2221</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
-        <v>3626</v>
+        <v>21672</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C42" s="8">
-        <v>3392</v>
+        <v>2221</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
-        <v>3520</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>25</v>
+      <c r="A43" s="18">
+        <v>11475</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="C43" s="8">
-        <v>3392</v>
+        <v>2221</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
-        <v>669</v>
+        <v>19031</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C44" s="8">
-        <v>3392</v>
+        <v>2803</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
-        <v>674</v>
+        <v>21661</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C45" s="8">
-        <v>3392</v>
+        <v>2803</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
-        <v>680</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>71</v>
+      <c r="A46" s="18">
+        <v>11240</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="C46" s="8">
-        <v>3392</v>
+        <v>2803</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
-        <v>685</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>72</v>
+      <c r="A47" s="18">
+        <v>18125</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="C47" s="8">
-        <v>3392</v>
+        <v>2803</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="8">
-        <v>11898</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>73</v>
+      <c r="A48" s="18">
+        <v>19789</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="C48" s="8">
-        <v>3392</v>
+        <v>2803</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
-        <v>15432</v>
+        <v>18287</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="C49" s="8">
         <v>3392</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
-        <v>15433</v>
+        <v>19852</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="C50" s="8">
         <v>3392</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
-        <v>20432</v>
+        <v>3626</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C51" s="8">
         <v>3392</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
-        <v>3421</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>55</v>
+        <v>3520</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C52" s="8">
         <v>3392</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="18">
-        <v>15710</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>128</v>
+      <c r="A53" s="8">
+        <v>3421</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="C53" s="8">
         <v>3392</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="18">
-        <v>21718</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>95</v>
+        <v>15710</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="C54" s="8">
         <v>3392</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="8">
-        <v>11292</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>38</v>
+      <c r="A55" s="18">
+        <v>21718</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="C55" s="8">
-        <v>4163</v>
+        <v>3392</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
-        <v>15794</v>
+        <v>11292</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C56" s="8">
         <v>4163</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
-        <v>4487</v>
+        <v>15794</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="8">
+        <v>74</v>
+      </c>
+      <c r="C57" s="21">
         <v>4163</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
-        <v>12985</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>39</v>
+        <v>4487</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="C58" s="8">
         <v>4163</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="18">
-        <v>10900</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>42</v>
+      <c r="A59" s="8">
+        <v>12985</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C59" s="8">
         <v>4163</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="18">
-        <v>6315</v>
+        <v>10900</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="C60" s="8">
         <v>4163</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="18">
-        <v>6307</v>
+        <v>6315</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C61" s="8">
         <v>4163</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="18">
-        <v>21709</v>
+        <v>6307</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C62" s="8">
         <v>4163</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="18">
-        <v>9990</v>
+        <v>21709</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="8">
+        <v>92</v>
+      </c>
+      <c r="C63" s="17">
         <v>4163</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="18">
-        <v>13813</v>
+        <v>9990</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C64" s="19">
-        <v>13757</v>
+        <v>93</v>
+      </c>
+      <c r="C64" s="17">
+        <v>4163</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="18">
-        <v>5115</v>
+        <v>13813</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C65" s="17">
+        <v>41</v>
+      </c>
+      <c r="C65" s="19">
         <v>13757</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="18">
-        <v>20430</v>
+        <v>5115</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C66" s="17">
+        <v>94</v>
+      </c>
+      <c r="C66" s="21">
         <v>13757</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="18">
-        <v>11010</v>
+        <v>20430</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C67" s="17">
         <v>13757</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1959,13 +1961,13 @@
         <v>15772</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C68" s="17">
         <v>13757</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1973,27 +1975,27 @@
         <v>5075</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C69" s="17">
         <v>13757</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="18">
         <v>21658</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C70" s="17">
+      <c r="B70" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="21">
         <v>13757</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2001,13 +2003,13 @@
         <v>8042</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C71" s="8">
         <v>13760</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2015,13 +2017,13 @@
         <v>866</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72" s="8">
         <v>13760</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2029,13 +2031,13 @@
         <v>15681</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C73" s="8">
         <v>13760</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2043,13 +2045,13 @@
         <v>18156</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C74" s="8">
         <v>13760</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2057,760 +2059,708 @@
         <v>21659</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C75" s="8">
         <v>13760</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>20185</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>57</v>
+      <c r="B76" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C76" s="8">
         <v>13760</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="18">
         <v>13795</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>42</v>
+      <c r="B77" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="C77" s="8">
         <v>13760</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
-        <v>19816</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>116</v>
+        <v>15754</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C78" s="8">
         <v>19769</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="8">
-        <v>20437</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C79" s="8">
+      <c r="A79" s="18">
+        <v>19802</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="18">
         <v>19769</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="8">
-        <v>15754</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>15</v>
+      <c r="A80" s="18">
+        <v>21048</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="C80" s="8">
         <v>19769</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
-        <v>19802</v>
+        <v>21706</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C81" s="18">
+        <v>114</v>
+      </c>
+      <c r="C81" s="8">
         <v>19769</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="18">
-        <v>21048</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>106</v>
+        <v>21047</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="C82" s="8">
         <v>19769</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="18">
-        <v>21706</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>126</v>
+      <c r="A83" s="8">
+        <v>20189</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="C83" s="8">
-        <v>19769</v>
+        <v>19772</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="18">
-        <v>21047</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>107</v>
+      <c r="A84" s="8">
+        <v>19793</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="C84" s="8">
-        <v>19769</v>
+        <v>19772</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="18">
-        <v>21056</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>108</v>
+      <c r="A85" s="8">
+        <v>1116</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="C85" s="8">
-        <v>19769</v>
+        <v>19772</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
-        <v>20189</v>
+        <v>1488</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="C86" s="8">
         <v>19772</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
-        <v>19793</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>81</v>
+        <v>1300</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C87" s="8">
         <v>19772</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
-        <v>1116</v>
+        <v>1274</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="C88" s="8">
         <v>19772</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
-        <v>1488</v>
+        <v>18135</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C89" s="8">
         <v>19772</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
-        <v>1300</v>
+        <v>1344</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C90" s="8">
         <v>19772</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
-        <v>1274</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>11</v>
+        <v>21707</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="C91" s="8">
         <v>19772</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="8">
-        <v>19792</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>13</v>
+      <c r="A92" s="18">
+        <v>1257</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="C92" s="8">
         <v>19772</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="8">
-        <v>18135</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>9</v>
+      <c r="A93" s="18">
+        <v>1535</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="C93" s="8">
         <v>19772</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
-        <v>1344</v>
+        <v>5921</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C94" s="8">
-        <v>19772</v>
+        <v>19774</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
-        <v>19786</v>
+        <v>20854</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C95" s="8">
-        <v>19772</v>
+        <v>19774</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
-        <v>21707</v>
+        <v>18103</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="C96" s="8">
-        <v>19772</v>
+        <v>19774</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="18">
-        <v>1257</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>109</v>
+      <c r="A97" s="8">
+        <v>5157</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="C97" s="8">
-        <v>19772</v>
+        <v>19774</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="18">
-        <v>1535</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>110</v>
+      <c r="A98" s="8">
+        <v>13766</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C98" s="8">
-        <v>19772</v>
+        <v>19774</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
-        <v>5921</v>
+        <v>10646</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C99" s="8">
         <v>19774</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
-        <v>20854</v>
+        <v>21281</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C100" s="8">
         <v>19774</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="8">
-        <v>18103</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>27</v>
+      <c r="A101" s="18">
+        <v>21728</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="C101" s="8">
         <v>19774</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
-        <v>5157</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>28</v>
+        <v>13829</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="C102" s="8">
-        <v>19774</v>
+        <v>19775</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
-        <v>13766</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>118</v>
+        <v>5457</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="C103" s="8">
-        <v>19774</v>
+        <v>19775</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
-        <v>10646</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C104" s="8">
-        <v>19774</v>
+        <v>5483</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104" s="3">
+        <v>19775</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
-        <v>21281</v>
-      </c>
-      <c r="B105" s="11" t="s">
+        <v>4857</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="8">
-        <v>19774</v>
+      <c r="C105" s="3">
+        <v>19775</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="18">
-        <v>21728</v>
+      <c r="A106" s="8">
+        <v>4910</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C106" s="8">
-        <v>19774</v>
+        <v>109</v>
+      </c>
+      <c r="C106" s="3">
+        <v>19775</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
-        <v>13829</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C107" s="8">
+        <v>17535</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C107" s="3">
         <v>19775</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="8">
-        <v>5457</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C108" s="8">
+      <c r="A108" s="18">
+        <v>21721</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C108" s="3">
         <v>19775</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="8">
-        <v>5483</v>
+      <c r="A109" s="18">
+        <v>13850</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C109" s="3">
         <v>19775</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
-        <v>4857</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>31</v>
+        <v>19934</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="C110" s="3">
         <v>19775</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
-        <v>4910</v>
+        <v>21691</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="C111" s="3">
-        <v>19775</v>
+        <v>21647</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
-        <v>17535</v>
+        <v>21690</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C112" s="3">
-        <v>19775</v>
+        <v>21647</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="18">
-        <v>21721</v>
+      <c r="A113" s="8">
+        <v>21687</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C113" s="3">
-        <v>19775</v>
+        <v>21647</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="18">
-        <v>13850</v>
+      <c r="A114" s="8">
+        <v>21688</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C114" s="3">
-        <v>19775</v>
+        <v>21647</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
-        <v>21691</v>
+        <v>21689</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C115" s="3">
         <v>21647</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="8">
-        <v>21690</v>
+      <c r="A116" s="18">
+        <v>21681</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="C116" s="3">
         <v>21647</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
-        <v>21687</v>
+        <v>131</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="C117" s="3">
-        <v>21647</v>
+        <v>21648</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
-        <v>21688</v>
+        <v>139</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="C118" s="3">
-        <v>21647</v>
+        <v>21648</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="8">
-        <v>21689</v>
+      <c r="A119" s="18">
+        <v>21715</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="C119" s="3">
-        <v>21647</v>
+        <v>21648</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="18">
-        <v>21681</v>
+        <v>21650</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C120" s="3">
-        <v>21647</v>
+        <v>21648</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="8">
-        <v>131</v>
+      <c r="A121" s="18">
+        <v>21665</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C121" s="3">
         <v>21648</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="8">
-        <v>139</v>
+      <c r="A122" s="18">
+        <v>116</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="C122" s="3">
         <v>21648</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="18">
-        <v>21715</v>
+        <v>99998</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C123" s="3">
-        <v>21648</v>
+        <v>99998</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="18">
-        <v>21650</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C124" s="3">
-        <v>21648</v>
-      </c>
-      <c r="D124" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="18">
-        <v>21665</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C125" s="3">
-        <v>21648</v>
-      </c>
-      <c r="D125" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="18">
-        <v>116</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C126" s="3">
-        <v>21648</v>
-      </c>
-      <c r="D126" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="18">
-        <v>99998</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C127" s="3">
-        <v>99998</v>
-      </c>
-      <c r="D127" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="18">
         <v>99999</v>
       </c>
-      <c r="B128" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C128" s="6">
+      <c r="B124" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C124" s="6">
         <v>99999</v>
       </c>
-      <c r="D128" s="16" t="s">
-        <v>91</v>
+      <c r="D124" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A27" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -2818,12 +2768,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2959,18 +2909,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2994,17 +2952,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>